--- a/SPRINT_PYTHON/dados_user.xlsx
+++ b/SPRINT_PYTHON/dados_user.xlsx
@@ -466,16 +466,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0     (True, 10)
-1    (False, 26)
-2     (True, 24)
-3     (True, 21)
-4    (False, 10)
-5    (False, 25)
-6     (True, 16)
-7    (False, 27)
-8    (False, 10)
-9     (True, 21)
+          <t>0    (False, 14)
+1    (False, 30)
+2     (True, 12)
+3    (False, 16)
+4    (False, 12)
+5     (True, 18)
+6     (True, 13)
+7    (False, 12)
+8     (True, 12)
+9     (True, 27)
 dtype: object</t>
         </is>
       </c>
@@ -497,15 +497,15 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>0    (False, 29)
-1    (False, 28)
-2     (True, 19)
-3    (False, 25)
-4    (False, 29)
-5     (True, 10)
-6    (False, 11)
-7    (False, 28)
-8     (True, 17)
-9    (False, 22)
+1     (True, 16)
+2     (True, 21)
+3     (True, 26)
+4     (True, 17)
+5    (False, 16)
+6    (False, 17)
+7    (False, 15)
+8     (True, 24)
+9    (False, 12)
 dtype: object</t>
         </is>
       </c>
@@ -526,16 +526,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0    (False, 19)
-1    (False, 10)
-2    (False, 10)
-3    (False, 21)
-4     (True, 11)
-5     (True, 19)
-6    (False, 29)
-7    (False, 25)
-8    (False, 22)
-9    (False, 25)
+          <t>0    (False, 26)
+1    (False, 18)
+2     (True, 30)
+3    (False, 23)
+4    (False, 30)
+5    (False, 15)
+6    (False, 27)
+7     (True, 30)
+8    (False, 28)
+9     (True, 19)
 dtype: object</t>
         </is>
       </c>
@@ -556,16 +556,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0     (True, 26)
-1    (False, 19)
-2     (True, 28)
-3    (False, 12)
-4    (False, 15)
-5    (False, 23)
-6     (True, 24)
-7     (True, 11)
-8    (False, 14)
-9     (True, 29)
+          <t>0     (True, 13)
+1    (False, 26)
+2     (True, 18)
+3     (True, 10)
+4     (True, 27)
+5    (False, 16)
+6     (True, 15)
+7    (False, 21)
+8     (True, 14)
+9    (False, 25)
 dtype: object</t>
         </is>
       </c>
@@ -586,16 +586,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0     (True, 13)
-1     (True, 25)
-2    (False, 29)
-3    (False, 20)
-4    (False, 24)
-5     (True, 16)
-6     (True, 22)
-7     (True, 16)
-8     (True, 12)
-9     (True, 25)
+          <t>0     (True, 18)
+1     (True, 23)
+2     (True, 25)
+3    (False, 23)
+4     (True, 25)
+5     (True, 29)
+6    (False, 15)
+7     (True, 30)
+8     (True, 25)
+9     (True, 27)
 dtype: object</t>
         </is>
       </c>
@@ -616,16 +616,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0     (True, 23)
-1     (True, 26)
-2    (False, 14)
-3     (True, 18)
-4     (True, 23)
-5     (True, 11)
-6     (True, 19)
-7    (False, 23)
-8    (False, 27)
-9    (False, 13)
+          <t>0     (True, 17)
+1     (True, 27)
+2    (False, 12)
+3     (True, 25)
+4    (False, 18)
+5    (False, 12)
+6    (False, 23)
+7     (True, 17)
+8     (True, 28)
+9    (False, 22)
 dtype: object</t>
         </is>
       </c>
@@ -646,16 +646,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0     (True, 21)
-1     (True, 21)
-2    (False, 23)
-3    (False, 29)
-4     (True, 16)
-5     (True, 12)
-6     (True, 26)
-7     (True, 17)
-8    (False, 13)
-9     (True, 15)
+          <t>0     (True, 28)
+1    (False, 29)
+2    (False, 21)
+3    (False, 23)
+4     (True, 14)
+5    (False, 13)
+6    (False, 11)
+7     (True, 19)
+8    (False, 25)
+9    (False, 18)
 dtype: object</t>
         </is>
       </c>
@@ -676,16 +676,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0     (True, 18)
-1     (True, 13)
-2     (True, 17)
-3     (True, 26)
-4     (True, 28)
-5    (False, 17)
-6    (False, 21)
-7    (False, 14)
-8    (False, 27)
-9    (False, 12)
+          <t>0     (True, 20)
+1     (True, 11)
+2    (False, 12)
+3    (False, 12)
+4    (False, 13)
+5    (False, 20)
+6    (False, 13)
+7     (True, 11)
+8     (True, 18)
+9    (False, 29)
 dtype: object</t>
         </is>
       </c>
@@ -706,16 +706,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0     (True, 13)
-1    (False, 26)
-2    (False, 28)
-3     (True, 13)
-4     (True, 12)
-5     (True, 29)
-6    (False, 11)
-7    (False, 20)
-8     (True, 19)
-9     (True, 26)
+          <t>0     (True, 15)
+1     (True, 11)
+2     (True, 10)
+3     (True, 12)
+4    (False, 14)
+5    (False, 28)
+6    (False, 29)
+7    (False, 19)
+8    (False, 11)
+9    (False, 15)
 dtype: object</t>
         </is>
       </c>
@@ -737,15 +737,15 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>0    (False, 29)
-1    (False, 15)
-2    (False, 20)
-3    (False, 16)
-4     (True, 15)
-5    (False, 29)
-6     (True, 29)
-7    (False, 19)
-8    (False, 11)
-9    (False, 17)
+1    (False, 12)
+2     (True, 18)
+3    (False, 19)
+4    (False, 25)
+5    (False, 12)
+6    (False, 21)
+7     (True, 17)
+8    (False, 13)
+9     (True, 14)
 dtype: object</t>
         </is>
       </c>
@@ -766,16 +766,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0     (True, 15)
-1     (True, 18)
-2     (True, 13)
-3     (True, 28)
-4     (True, 12)
-5     (True, 23)
-6     (True, 29)
-7     (True, 14)
-8     (True, 19)
-9    (False, 13)
+          <t>0    (False, 26)
+1    (False, 25)
+2     (True, 28)
+3    (False, 24)
+4    (False, 16)
+5    (False, 29)
+6     (True, 17)
+7    (False, 14)
+8     (True, 12)
+9    (False, 15)
 dtype: object</t>
         </is>
       </c>
@@ -796,16 +796,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0     (True, 19)
-1     (True, 30)
-2     (True, 30)
-3     (True, 14)
-4    (False, 27)
-5    (False, 29)
-6    (False, 29)
-7    (False, 13)
-8    (False, 28)
-9    (False, 16)
+          <t>0    (False, 29)
+1    (False, 15)
+2    (False, 21)
+3    (False, 20)
+4    (False, 14)
+5    (False, 25)
+6    (False, 13)
+7     (True, 16)
+8    (False, 22)
+9    (False, 15)
 dtype: object</t>
         </is>
       </c>
@@ -826,16 +826,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0     (True, 29)
-1    (False, 26)
-2    (False, 12)
-3     (True, 22)
-4     (True, 12)
-5    (False, 18)
-6     (True, 21)
-7    (False, 19)
-8    (False, 13)
-9    (False, 11)
+          <t>0    (False, 28)
+1    (False, 27)
+2     (True, 25)
+3     (True, 28)
+4    (False, 24)
+5     (True, 29)
+6    (False, 29)
+7     (True, 20)
+8     (True, 28)
+9     (True, 17)
 dtype: object</t>
         </is>
       </c>
@@ -856,16 +856,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0    (False, 16)
-1    (False, 10)
-2     (True, 14)
-3    (False, 21)
-4     (True, 28)
-5     (True, 20)
-6    (False, 10)
-7    (False, 15)
-8    (False, 22)
-9    (False, 18)
+          <t>0     (True, 30)
+1     (True, 20)
+2     (True, 27)
+3     (True, 20)
+4     (True, 16)
+5    (False, 30)
+6    (False, 24)
+7     (True, 25)
+8    (False, 28)
+9     (True, 17)
 dtype: object</t>
         </is>
       </c>
@@ -886,16 +886,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0     (True, 24)
-1    (False, 23)
-2    (False, 10)
-3     (True, 15)
-4    (False, 15)
-5     (True, 19)
-6     (True, 26)
-7    (False, 23)
-8    (False, 13)
-9    (False, 24)
+          <t>0     (True, 17)
+1     (True, 11)
+2    (False, 12)
+3     (True, 16)
+4     (True, 20)
+5     (True, 29)
+6    (False, 20)
+7     (True, 11)
+8    (False, 18)
+9     (True, 28)
 dtype: object</t>
         </is>
       </c>
@@ -916,16 +916,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0     (True, 20)
-1    (False, 20)
-2     (True, 14)
-3     (True, 20)
-4     (True, 25)
-5     (True, 15)
-6     (True, 10)
-7     (True, 25)
-8     (True, 13)
-9    (False, 17)
+          <t>0     (True, 12)
+1    (False, 28)
+2    (False, 19)
+3     (True, 13)
+4    (False, 14)
+5    (False, 26)
+6    (False, 22)
+7     (True, 22)
+8    (False, 24)
+9    (False, 28)
 dtype: object</t>
         </is>
       </c>
@@ -946,16 +946,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0     (True, 14)
-1    (False, 15)
-2    (False, 12)
-3     (True, 18)
-4    (False, 21)
-5     (True, 14)
-6     (True, 11)
-7     (True, 14)
-8    (False, 28)
-9     (True, 10)
+          <t>0    (False, 23)
+1    (False, 27)
+2     (True, 10)
+3    (False, 17)
+4    (False, 18)
+5     (True, 15)
+6    (False, 20)
+7    (False, 21)
+8    (False, 30)
+9    (False, 10)
 dtype: object</t>
         </is>
       </c>
@@ -976,16 +976,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0     (True, 18)
-1     (True, 10)
-2    (False, 14)
-3    (False, 24)
-4    (False, 27)
-5    (False, 27)
-6     (True, 19)
-7    (False, 30)
-8     (True, 16)
-9     (True, 30)
+          <t>0     (True, 27)
+1     (True, 21)
+2    (False, 27)
+3     (True, 25)
+4    (False, 21)
+5    (False, 17)
+6     (True, 10)
+7    (False, 23)
+8    (False, 20)
+9     (True, 24)
 dtype: object</t>
         </is>
       </c>
@@ -1006,16 +1006,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0    (False, 21)
-1    (False, 25)
-2    (False, 23)
-3    (False, 27)
-4    (False, 28)
-5    (False, 27)
-6    (False, 19)
-7    (False, 15)
-8    (False, 26)
-9     (True, 12)
+          <t>0     (True, 23)
+1    (False, 14)
+2    (False, 24)
+3    (False, 17)
+4    (False, 12)
+5    (False, 15)
+6    (False, 16)
+7    (False, 24)
+8    (False, 17)
+9     (True, 22)
 dtype: object</t>
         </is>
       </c>
@@ -1036,16 +1036,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0     (True, 22)
-1     (True, 25)
-2     (True, 19)
-3     (True, 14)
-4     (True, 22)
-5     (True, 27)
-6    (False, 10)
-7    (False, 22)
-8    (False, 19)
-9     (True, 14)
+          <t>0    (False, 24)
+1     (True, 10)
+2     (True, 28)
+3     (True, 29)
+4     (True, 23)
+5     (True, 11)
+6     (True, 17)
+7    (False, 17)
+8    (False, 20)
+9     (True, 19)
 dtype: object</t>
         </is>
       </c>
@@ -1066,16 +1066,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0    (False, 17)
-1    (False, 24)
+          <t>0     (True, 25)
+1     (True, 21)
 2    (False, 17)
-3    (False, 24)
-4    (False, 24)
-5    (False, 24)
-6    (False, 12)
-7     (True, 25)
-8    (False, 23)
-9     (True, 19)
+3    (False, 12)
+4     (True, 21)
+5     (True, 28)
+6    (False, 23)
+7     (True, 14)
+8    (False, 22)
+9    (False, 11)
 dtype: object</t>
         </is>
       </c>
@@ -1096,16 +1096,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0     (True, 11)
-1    (False, 19)
-2    (False, 19)
-3     (True, 15)
-4     (True, 13)
-5    (False, 30)
-6     (True, 22)
-7    (False, 15)
-8    (False, 27)
-9     (True, 29)
+          <t>0     (True, 18)
+1    (False, 21)
+2     (True, 22)
+3     (True, 29)
+4    (False, 24)
+5     (True, 11)
+6     (True, 28)
+7    (False, 11)
+8     (True, 27)
+9     (True, 23)
 dtype: object</t>
         </is>
       </c>
@@ -1126,16 +1126,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0    (False, 26)
-1    (False, 29)
-2     (True, 10)
-3    (False, 18)
-4    (False, 15)
-5    (False, 19)
-6     (True, 25)
-7    (False, 17)
-8    (False, 17)
-9    (False, 22)
+          <t>0     (True, 12)
+1     (True, 14)
+2    (False, 13)
+3     (True, 16)
+4     (True, 28)
+5     (True, 14)
+6     (True, 13)
+7     (True, 28)
+8    (False, 13)
+9    (False, 29)
 dtype: object</t>
         </is>
       </c>
@@ -1156,16 +1156,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0    (False, 17)
-1    (False, 14)
-2     (True, 29)
-3    (False, 13)
-4    (False, 28)
-5    (False, 25)
-6     (True, 12)
-7     (True, 27)
-8    (False, 24)
-9     (True, 26)
+          <t>0     (True, 24)
+1     (True, 27)
+2     (True, 28)
+3     (True, 18)
+4     (True, 10)
+5    (False, 15)
+6     (True, 21)
+7    (False, 24)
+8    (False, 15)
+9     (True, 29)
 dtype: object</t>
         </is>
       </c>
@@ -1186,16 +1186,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0     (True, 11)
-1     (True, 23)
-2     (True, 17)
-3     (True, 23)
-4     (True, 29)
-5     (True, 10)
-6    (False, 10)
-7    (False, 22)
-8     (True, 24)
-9     (True, 27)
+          <t>0    (False, 22)
+1    (False, 28)
+2    (False, 14)
+3    (False, 29)
+4    (False, 11)
+5    (False, 16)
+6    (False, 19)
+7    (False, 25)
+8    (False, 13)
+9    (False, 12)
 dtype: object</t>
         </is>
       </c>
@@ -1216,16 +1216,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0    (False, 30)
-1    (False, 30)
-2     (True, 25)
-3    (False, 18)
-4    (False, 27)
-5    (False, 19)
-6    (False, 26)
-7     (True, 11)
-8     (True, 29)
-9     (True, 25)
+          <t>0     (True, 21)
+1    (False, 10)
+2     (True, 23)
+3     (True, 27)
+4     (True, 15)
+5     (True, 25)
+6    (False, 19)
+7     (True, 26)
+8    (False, 26)
+9    (False, 17)
 dtype: object</t>
         </is>
       </c>
@@ -1246,16 +1246,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0    (False, 20)
-1    (False, 26)
-2    (False, 15)
-3     (True, 25)
-4     (True, 14)
+          <t>0    (False, 28)
+1    (False, 11)
+2     (True, 13)
+3     (True, 26)
+4     (True, 12)
 5    (False, 17)
-6     (True, 12)
-7     (True, 11)
-8     (True, 12)
-9     (True, 24)
+6    (False, 29)
+7     (True, 18)
+8    (False, 15)
+9    (False, 17)
 dtype: object</t>
         </is>
       </c>
@@ -1276,16 +1276,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0     (True, 11)
-1    (False, 13)
-2    (False, 14)
-3     (True, 22)
-4     (True, 23)
-5     (True, 16)
-6    (False, 19)
-7    (False, 19)
-8    (False, 24)
-9     (True, 17)
+          <t>0    (False, 28)
+1    (False, 16)
+2    (False, 27)
+3    (False, 25)
+4     (True, 11)
+5    (False, 27)
+6    (False, 30)
+7     (True, 25)
+8     (True, 27)
+9     (True, 25)
 dtype: object</t>
         </is>
       </c>
@@ -1306,16 +1306,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0     (True, 13)
-1     (True, 16)
-2     (True, 22)
-3     (True, 26)
-4    (False, 30)
-5     (True, 26)
-6     (True, 17)
-7    (False, 29)
-8    (False, 24)
-9    (False, 13)
+          <t>0    (False, 17)
+1     (True, 28)
+2     (True, 14)
+3    (False, 18)
+4    (False, 21)
+5     (True, 27)
+6    (False, 22)
+7     (True, 19)
+8     (True, 18)
+9    (False, 11)
 dtype: object</t>
         </is>
       </c>
@@ -1336,16 +1336,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0    (False, 26)
-1     (True, 16)
-2    (False, 22)
-3     (True, 21)
-4    (False, 11)
-5    (False, 12)
-6     (True, 20)
-7    (False, 11)
-8     (True, 20)
-9    (False, 23)
+          <t>0     (True, 22)
+1    (False, 29)
+2     (True, 13)
+3     (True, 12)
+4    (False, 28)
+5     (True, 19)
+6    (False, 19)
+7     (True, 13)
+8    (False, 25)
+9    (False, 18)
 dtype: object</t>
         </is>
       </c>
@@ -1366,16 +1366,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0     (True, 19)
-1    (False, 25)
-2     (True, 18)
-3    (False, 27)
-4    (False, 29)
-5    (False, 26)
-6     (True, 19)
-7     (True, 17)
-8     (True, 23)
-9    (False, 16)
+          <t>0    (False, 21)
+1     (True, 23)
+2     (True, 16)
+3    (False, 24)
+4     (True, 11)
+5    (False, 18)
+6     (True, 30)
+7    (False, 22)
+8    (False, 30)
+9     (True, 10)
 dtype: object</t>
         </is>
       </c>
@@ -1396,16 +1396,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0    (False, 25)
-1     (True, 19)
-2    (False, 29)
-3    (False, 11)
-4     (True, 12)
-5    (False, 27)
-6    (False, 17)
-7     (True, 21)
-8    (False, 19)
-9    (False, 15)
+          <t>0    (False, 21)
+1    (False, 15)
+2     (True, 19)
+3     (True, 15)
+4    (False, 20)
+5     (True, 21)
+6    (False, 14)
+7     (True, 13)
+8    (False, 21)
+9    (False, 25)
 dtype: object</t>
         </is>
       </c>
@@ -1426,16 +1426,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0     (True, 10)
-1    (False, 19)
-2     (True, 18)
-3     (True, 12)
-4     (True, 27)
-5    (False, 28)
-6    (False, 29)
-7     (True, 14)
-8    (False, 25)
-9    (False, 10)
+          <t>0     (True, 27)
+1    (False, 25)
+2    (False, 27)
+3    (False, 27)
+4     (True, 29)
+5     (True, 10)
+6    (False, 16)
+7     (True, 23)
+8    (False, 11)
+9     (True, 28)
 dtype: object</t>
         </is>
       </c>
@@ -1456,16 +1456,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0     (True, 22)
-1    (False, 24)
-2     (True, 23)
-3     (True, 20)
-4    (False, 24)
-5    (False, 11)
-6     (True, 22)
-7    (False, 24)
-8     (True, 19)
-9     (True, 12)
+          <t>0     (True, 17)
+1    (False, 10)
+2     (True, 26)
+3     (True, 13)
+4     (True, 11)
+5     (True, 17)
+6     (True, 14)
+7    (False, 27)
+8     (True, 18)
+9    (False, 21)
 dtype: object</t>
         </is>
       </c>
@@ -1486,16 +1486,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0    (False, 30)
-1     (True, 29)
-2    (False, 16)
-3    (False, 14)
-4    (False, 20)
-5    (False, 19)
-6    (False, 11)
-7     (True, 21)
-8     (True, 24)
-9    (False, 28)
+          <t>0     (True, 28)
+1    (False, 15)
+2     (True, 13)
+3     (True, 29)
+4     (True, 11)
+5    (False, 12)
+6     (True, 27)
+7    (False, 18)
+8     (True, 27)
+9     (True, 14)
 dtype: object</t>
         </is>
       </c>
@@ -1516,16 +1516,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0     (True, 13)
-1     (True, 21)
-2    (False, 18)
-3    (False, 11)
-4    (False, 17)
-5     (True, 11)
-6    (False, 24)
-7    (False, 18)
-8     (True, 28)
-9     (True, 29)
+          <t>0    (False, 29)
+1    (False, 28)
+2     (True, 18)
+3    (False, 29)
+4     (True, 29)
+5    (False, 28)
+6    (False, 13)
+7    (False, 19)
+8     (True, 24)
+9    (False, 20)
 dtype: object</t>
         </is>
       </c>
@@ -1546,16 +1546,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0     (True, 27)
-1    (False, 25)
-2    (False, 18)
-3    (False, 13)
-4     (True, 14)
-5    (False, 20)
-6     (True, 12)
-7     (True, 30)
-8     (True, 20)
-9     (True, 28)
+          <t>0    (False, 13)
+1     (True, 19)
+2    (False, 10)
+3     (True, 12)
+4    (False, 28)
+5     (True, 19)
+6     (True, 19)
+7     (True, 12)
+8    (False, 15)
+9    (False, 15)
 dtype: object</t>
         </is>
       </c>
@@ -1576,16 +1576,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0    (False, 29)
-1     (True, 28)
-2     (True, 25)
-3     (True, 17)
-4    (False, 10)
-5     (True, 18)
-6    (False, 21)
-7    (False, 13)
-8     (True, 17)
-9    (False, 28)
+          <t>0    (False, 28)
+1     (True, 25)
+2     (True, 19)
+3    (False, 19)
+4    (False, 17)
+5     (True, 19)
+6    (False, 25)
+7    (False, 27)
+8    (False, 23)
+9     (True, 25)
 dtype: object</t>
         </is>
       </c>
@@ -1606,16 +1606,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0     (True, 10)
-1     (True, 30)
-2     (True, 19)
-3     (True, 22)
-4    (False, 18)
-5    (False, 14)
-6    (False, 10)
-7    (False, 25)
-8     (True, 29)
-9     (True, 10)
+          <t>0    (False, 10)
+1    (False, 14)
+2     (True, 12)
+3     (True, 20)
+4    (False, 19)
+5    (False, 15)
+6    (False, 11)
+7     (True, 27)
+8    (False, 27)
+9     (True, 18)
 dtype: object</t>
         </is>
       </c>
@@ -1636,16 +1636,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0    (False, 28)
-1     (True, 27)
-2    (False, 27)
-3    (False, 26)
-4     (True, 16)
-5     (True, 14)
-6     (True, 15)
-7     (True, 13)
-8    (False, 18)
-9     (True, 27)
+          <t>0    (False, 16)
+1    (False, 20)
+2    (False, 29)
+3    (False, 28)
+4    (False, 11)
+5     (True, 12)
+6     (True, 26)
+7     (True, 18)
+8     (True, 13)
+9     (True, 11)
 dtype: object</t>
         </is>
       </c>
